--- a/biology/Botanique/Square_Pierre-de-Gaulle/Square_Pierre-de-Gaulle.xlsx
+++ b/biology/Botanique/Square_Pierre-de-Gaulle/Square_Pierre-de-Gaulle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le square Pierre-de-Gaulle est un square du 7e arrondissement de Paris, sur le côté droit de l'église Saint François-Xavier.
@@ -512,10 +524,12 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le site est accessible par le 2, place du Président-Mithouard[1].
-Il est ouvert à des horaires réglementés[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le site est accessible par le 2, place du Président-Mithouard.
+Il est ouvert à des horaires réglementés.
 Il est desservi par la ligne 13 à la station Saint-François-Xavier.
 </t>
         </is>
@@ -545,7 +559,9 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce square honore la mémoire de Pierre de Gaulle (1897-1959), résistant et frère cadet du général de Gaulle, qui naquit dans le 7e arrondissement de Paris.
 </t>
@@ -576,11 +592,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Avec le square de l'Abbé-Esquerré, il est l'un des deux espaces verts, de forme similaire, autour de l'église Saint-François-Xavier.
-Planté de paulownias, il possède le label Écojardin[1].
-Il est équipé d'une aire de jeux pour les enfants, de tables de ping-pong et d'un point d'eau potable[1].
+Planté de paulownias, il possède le label Écojardin.
+Il est équipé d'une aire de jeux pour les enfants, de tables de ping-pong et d'un point d'eau potable.
 Un monument y est installé, en hommage à Antoine de Saint-Exupéry (médaillon de l'écrivain par la sculptrice Consuelo de Saint-Exupéry et stèle rouge d'Ahtzic Silis). À noter que Saint-Exupéry vécut non loin, place Vauban.
 			Le square Pierre-de-Gaulle et l'église Saint-François-Xavier.
 			Monument en hommage à Saint-Exupéry.
